--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf11a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H2">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I2">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J2">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.075439666666667</v>
+        <v>2.283376333333333</v>
       </c>
       <c r="N2">
-        <v>6.226319</v>
+        <v>6.850129000000001</v>
       </c>
       <c r="O2">
-        <v>0.03950687840363332</v>
+        <v>0.03598856860670048</v>
       </c>
       <c r="P2">
-        <v>0.03976820882510598</v>
+        <v>0.03609671873041641</v>
       </c>
       <c r="Q2">
-        <v>0.1098786186458889</v>
+        <v>0.04596664896633333</v>
       </c>
       <c r="R2">
-        <v>0.988907567813</v>
+        <v>0.4136998406970001</v>
       </c>
       <c r="S2">
-        <v>0.0006551496480577219</v>
+        <v>0.0002117270143964963</v>
       </c>
       <c r="T2">
-        <v>0.000665026488133272</v>
+        <v>0.0002193538622356334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H3">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I3">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J3">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05457933333333334</v>
+        <v>0.05457933333333333</v>
       </c>
       <c r="N3">
         <v>0.163738</v>
       </c>
       <c r="O3">
-        <v>0.001038940866353638</v>
+        <v>0.0008602314272510669</v>
       </c>
       <c r="P3">
-        <v>0.001045813260869738</v>
+        <v>0.0008628165296567295</v>
       </c>
       <c r="Q3">
-        <v>0.002889557258444445</v>
+        <v>0.001098736559333333</v>
       </c>
       <c r="R3">
-        <v>0.026006015326</v>
+        <v>0.009888629034</v>
       </c>
       <c r="S3">
-        <v>1.722894266639331E-05</v>
+        <v>5.060891245004804E-06</v>
       </c>
       <c r="T3">
-        <v>1.748868105119023E-05</v>
+        <v>5.243195083587204E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H4">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I4">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J4">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.94875033333333</v>
+        <v>28.334948</v>
       </c>
       <c r="N4">
-        <v>62.846251</v>
+        <v>85.00484400000001</v>
       </c>
       <c r="O4">
-        <v>0.3987683888957856</v>
+        <v>0.4465905182509515</v>
       </c>
       <c r="P4">
-        <v>0.4014061652869095</v>
+        <v>0.4479325782902666</v>
       </c>
       <c r="Q4">
-        <v>1.109075723064111</v>
+        <v>0.570410838188</v>
       </c>
       <c r="R4">
-        <v>9.981681507576999</v>
+        <v>5.133697543692</v>
       </c>
       <c r="S4">
-        <v>0.006612847691291958</v>
+        <v>0.002627369766227749</v>
       </c>
       <c r="T4">
-        <v>0.006712541004544118</v>
+        <v>0.002722013094955949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H5">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I5">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J5">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.035649</v>
+        <v>0.570287</v>
       </c>
       <c r="N5">
-        <v>2.071298</v>
+        <v>1.140574</v>
       </c>
       <c r="O5">
-        <v>0.0197140200069308</v>
+        <v>0.008988361894356763</v>
       </c>
       <c r="P5">
-        <v>0.01322961631150353</v>
+        <v>0.006010248693013806</v>
       </c>
       <c r="Q5">
-        <v>0.05482967457433334</v>
+        <v>0.011480447597</v>
       </c>
       <c r="R5">
-        <v>0.328978047446</v>
+        <v>0.068882685582</v>
       </c>
       <c r="S5">
-        <v>0.0003269211284522999</v>
+        <v>5.288009781675704E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002212331290474307</v>
+        <v>3.652329935181444E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H6">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I6">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J6">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.41921</v>
+        <v>32.20407666666667</v>
       </c>
       <c r="N6">
-        <v>85.25763000000001</v>
+        <v>96.61223000000001</v>
       </c>
       <c r="O6">
-        <v>0.5409717718272965</v>
+        <v>0.5075723198207401</v>
       </c>
       <c r="P6">
-        <v>0.5445501963156113</v>
+        <v>0.5090976377566464</v>
       </c>
       <c r="Q6">
-        <v>1.50457928889</v>
+        <v>0.6483002673766668</v>
       </c>
       <c r="R6">
-        <v>13.54121360001</v>
+        <v>5.834702406390001</v>
       </c>
       <c r="S6">
-        <v>0.008971031887176914</v>
+        <v>0.002986136321241193</v>
       </c>
       <c r="T6">
-        <v>0.009106276479805468</v>
+        <v>0.003093703168173522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I7">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J7">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.075439666666667</v>
+        <v>2.283376333333333</v>
       </c>
       <c r="N7">
-        <v>6.226319</v>
+        <v>6.850129000000001</v>
       </c>
       <c r="O7">
-        <v>0.03950687840363332</v>
+        <v>0.03598856860670048</v>
       </c>
       <c r="P7">
-        <v>0.03976820882510598</v>
+        <v>0.03609671873041641</v>
       </c>
       <c r="Q7">
-        <v>6.350343815413889</v>
+        <v>6.986579764052778</v>
       </c>
       <c r="R7">
-        <v>57.153094338725</v>
+        <v>62.87921787647501</v>
       </c>
       <c r="S7">
-        <v>0.03786383162607772</v>
+        <v>0.03218089000504029</v>
       </c>
       <c r="T7">
-        <v>0.03843465542294157</v>
+        <v>0.03334011265830466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I8">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J8">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,16 +930,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05457933333333334</v>
+        <v>0.05457933333333333</v>
       </c>
       <c r="N8">
         <v>0.163738</v>
       </c>
       <c r="O8">
-        <v>0.001038940866353638</v>
+        <v>0.0008602314272510669</v>
       </c>
       <c r="P8">
-        <v>0.001045813260869738</v>
+        <v>0.0008628165296567295</v>
       </c>
       <c r="Q8">
         <v>0.1669995699944445</v>
@@ -948,10 +948,10 @@
         <v>1.50299612995</v>
       </c>
       <c r="S8">
-        <v>0.0009957324805861562</v>
+        <v>0.0007692168377625134</v>
       </c>
       <c r="T8">
-        <v>0.001010743845543668</v>
+        <v>0.0007969256296407685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I9">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J9">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.94875033333333</v>
+        <v>28.334948</v>
       </c>
       <c r="N9">
-        <v>62.846251</v>
+        <v>85.00484400000001</v>
       </c>
       <c r="O9">
-        <v>0.3987683888957856</v>
+        <v>0.4465905182509515</v>
       </c>
       <c r="P9">
-        <v>0.4014061652869095</v>
+        <v>0.4479325782902666</v>
       </c>
       <c r="Q9">
-        <v>64.09811340533611</v>
+        <v>86.69809326756668</v>
       </c>
       <c r="R9">
-        <v>576.883020648025</v>
+        <v>780.2828394081001</v>
       </c>
       <c r="S9">
-        <v>0.382184058702135</v>
+        <v>0.3993401488730518</v>
       </c>
       <c r="T9">
-        <v>0.3879457512229452</v>
+        <v>0.4137252123955057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I10">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J10">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035649</v>
+        <v>0.570287</v>
       </c>
       <c r="N10">
-        <v>2.071298</v>
+        <v>1.140574</v>
       </c>
       <c r="O10">
-        <v>0.0197140200069308</v>
+        <v>0.008988361894356763</v>
       </c>
       <c r="P10">
-        <v>0.01322961631150353</v>
+        <v>0.006010248693013806</v>
       </c>
       <c r="Q10">
-        <v>3.168835658158334</v>
+        <v>1.744940400641667</v>
       </c>
       <c r="R10">
-        <v>19.01301394895</v>
+        <v>10.46964240385</v>
       </c>
       <c r="S10">
-        <v>0.01889413601827136</v>
+        <v>0.008037371216646175</v>
       </c>
       <c r="T10">
-        <v>0.01278598557321397</v>
+        <v>0.005551262706896933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I11">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J11">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.41921</v>
+        <v>32.20407666666667</v>
       </c>
       <c r="N11">
-        <v>85.25763000000001</v>
+        <v>96.61223000000001</v>
       </c>
       <c r="O11">
-        <v>0.5409717718272965</v>
+        <v>0.5075723198207401</v>
       </c>
       <c r="P11">
-        <v>0.5445501963156113</v>
+        <v>0.5090976377566464</v>
       </c>
       <c r="Q11">
-        <v>86.95591462425001</v>
+        <v>98.53669194813891</v>
       </c>
       <c r="R11">
-        <v>782.6032316182501</v>
+        <v>886.8302275332502</v>
       </c>
       <c r="S11">
-        <v>0.5184733623764592</v>
+        <v>0.453869926649798</v>
       </c>
       <c r="T11">
-        <v>0.5262897116621629</v>
+        <v>0.4702192662897357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0798315</v>
+        <v>0.014756</v>
       </c>
       <c r="H12">
-        <v>0.159663</v>
+        <v>0.044268</v>
       </c>
       <c r="I12">
-        <v>0.0250056994988252</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J12">
-        <v>0.01681058649061121</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.075439666666667</v>
+        <v>2.283376333333333</v>
       </c>
       <c r="N12">
-        <v>6.226319</v>
+        <v>6.850129000000001</v>
       </c>
       <c r="O12">
-        <v>0.03950687840363332</v>
+        <v>0.03598856860670048</v>
       </c>
       <c r="P12">
-        <v>0.03976820882510598</v>
+        <v>0.03609671873041641</v>
       </c>
       <c r="Q12">
-        <v>0.1656854617495</v>
+        <v>0.03369350117466667</v>
       </c>
       <c r="R12">
-        <v>0.994112770497</v>
+        <v>0.3032415105720001</v>
       </c>
       <c r="S12">
-        <v>0.000987897129497882</v>
+        <v>0.0001551956596510208</v>
       </c>
       <c r="T12">
-        <v>0.000668526914031132</v>
+        <v>0.0001607861304033086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0798315</v>
+        <v>0.014756</v>
       </c>
       <c r="H13">
-        <v>0.159663</v>
+        <v>0.044268</v>
       </c>
       <c r="I13">
-        <v>0.0250056994988252</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J13">
-        <v>0.01681058649061121</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.05457933333333334</v>
+        <v>0.05457933333333333</v>
       </c>
       <c r="N13">
         <v>0.163738</v>
       </c>
       <c r="O13">
-        <v>0.001038940866353638</v>
+        <v>0.0008602314272510669</v>
       </c>
       <c r="P13">
-        <v>0.001045813260869738</v>
+        <v>0.0008628165296567295</v>
       </c>
       <c r="Q13">
-        <v>0.004357150049000001</v>
+        <v>0.0008053726426666667</v>
       </c>
       <c r="R13">
-        <v>0.02614290029400001</v>
+        <v>0.007248353784</v>
       </c>
       <c r="S13">
-        <v>2.597944310108818E-05</v>
+        <v>3.709627500436684E-06</v>
       </c>
       <c r="T13">
-        <v>1.758073427487887E-05</v>
+        <v>3.843256005832437E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0798315</v>
+        <v>0.014756</v>
       </c>
       <c r="H14">
-        <v>0.159663</v>
+        <v>0.044268</v>
       </c>
       <c r="I14">
-        <v>0.0250056994988252</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J14">
-        <v>0.01681058649061121</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.94875033333333</v>
+        <v>28.334948</v>
       </c>
       <c r="N14">
-        <v>62.846251</v>
+        <v>85.00484400000001</v>
       </c>
       <c r="O14">
-        <v>0.3987683888957856</v>
+        <v>0.4465905182509515</v>
       </c>
       <c r="P14">
-        <v>0.4014061652869095</v>
+        <v>0.4479325782902666</v>
       </c>
       <c r="Q14">
-        <v>1.6723701622355</v>
+        <v>0.418110492688</v>
       </c>
       <c r="R14">
-        <v>10.034220973413</v>
+        <v>3.762994434192001</v>
       </c>
       <c r="S14">
-        <v>0.009971482502358681</v>
+        <v>0.001925859036831586</v>
       </c>
       <c r="T14">
-        <v>0.006747873059420172</v>
+        <v>0.001995232488657791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0798315</v>
+        <v>0.014756</v>
       </c>
       <c r="H15">
-        <v>0.159663</v>
+        <v>0.044268</v>
       </c>
       <c r="I15">
-        <v>0.0250056994988252</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J15">
-        <v>0.01681058649061121</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.035649</v>
+        <v>0.570287</v>
       </c>
       <c r="N15">
-        <v>2.071298</v>
+        <v>1.140574</v>
       </c>
       <c r="O15">
-        <v>0.0197140200069308</v>
+        <v>0.008988361894356763</v>
       </c>
       <c r="P15">
-        <v>0.01322961631150353</v>
+        <v>0.006010248693013806</v>
       </c>
       <c r="Q15">
-        <v>0.08267741314350001</v>
+        <v>0.008415154972000001</v>
       </c>
       <c r="R15">
-        <v>0.330709652574</v>
+        <v>0.050490929832</v>
       </c>
       <c r="S15">
-        <v>0.0004929628602071395</v>
+        <v>3.876105128329774E-05</v>
       </c>
       <c r="T15">
-        <v>0.000222397609242131</v>
+        <v>2.677153669640722E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,19 +1405,19 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0798315</v>
+        <v>0.014756</v>
       </c>
       <c r="H16">
-        <v>0.159663</v>
+        <v>0.044268</v>
       </c>
       <c r="I16">
-        <v>0.0250056994988252</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J16">
-        <v>0.01681058649061121</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.41921</v>
+        <v>32.20407666666667</v>
       </c>
       <c r="N16">
-        <v>85.25763000000001</v>
+        <v>96.61223000000001</v>
       </c>
       <c r="O16">
-        <v>0.5409717718272965</v>
+        <v>0.5075723198207401</v>
       </c>
       <c r="P16">
-        <v>0.5445501963156113</v>
+        <v>0.5090976377566464</v>
       </c>
       <c r="Q16">
-        <v>2.268748163115</v>
+        <v>0.4752033552933334</v>
       </c>
       <c r="R16">
-        <v>13.61248897869</v>
+        <v>4.276830197640001</v>
       </c>
       <c r="S16">
-        <v>0.01352737756366041</v>
+        <v>0.002188834511759726</v>
       </c>
       <c r="T16">
-        <v>0.009154208173642897</v>
+        <v>0.002267680887664224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.327147</v>
+      </c>
+      <c r="H17">
+        <v>0.654294</v>
+      </c>
+      <c r="I17">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J17">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.283376333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.850129000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.03598856860670048</v>
+      </c>
+      <c r="P17">
+        <v>0.03609671873041641</v>
+      </c>
+      <c r="Q17">
+        <v>0.7469997173210001</v>
+      </c>
+      <c r="R17">
+        <v>4.481998303926001</v>
+      </c>
+      <c r="S17">
+        <v>0.003440755927612666</v>
+      </c>
+      <c r="T17">
+        <v>0.002376466079472811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.327147</v>
+      </c>
+      <c r="H18">
+        <v>0.654294</v>
+      </c>
+      <c r="I18">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J18">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05457933333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.163738</v>
+      </c>
+      <c r="O18">
+        <v>0.0008602314272510669</v>
+      </c>
+      <c r="P18">
+        <v>0.0008628165296567295</v>
+      </c>
+      <c r="Q18">
+        <v>0.017855465162</v>
+      </c>
+      <c r="R18">
+        <v>0.107132790972</v>
+      </c>
+      <c r="S18">
+        <v>8.224407074311195E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.680444892654126E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.327147</v>
+      </c>
+      <c r="H19">
+        <v>0.654294</v>
+      </c>
+      <c r="I19">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J19">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>28.334948</v>
+      </c>
+      <c r="N19">
+        <v>85.00484400000001</v>
+      </c>
+      <c r="O19">
+        <v>0.4465905182509515</v>
+      </c>
+      <c r="P19">
+        <v>0.4479325782902666</v>
+      </c>
+      <c r="Q19">
+        <v>9.269693233356001</v>
+      </c>
+      <c r="R19">
+        <v>55.61815940013601</v>
+      </c>
+      <c r="S19">
+        <v>0.04269714057484027</v>
+      </c>
+      <c r="T19">
+        <v>0.02949012031114712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.327147</v>
+      </c>
+      <c r="H20">
+        <v>0.654294</v>
+      </c>
+      <c r="I20">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J20">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.570287</v>
+      </c>
+      <c r="N20">
+        <v>1.140574</v>
+      </c>
+      <c r="O20">
+        <v>0.008988361894356763</v>
+      </c>
+      <c r="P20">
+        <v>0.006010248693013806</v>
+      </c>
+      <c r="Q20">
+        <v>0.186567681189</v>
+      </c>
+      <c r="R20">
+        <v>0.746270724756</v>
+      </c>
+      <c r="S20">
+        <v>0.0008593495286105318</v>
+      </c>
+      <c r="T20">
+        <v>0.0003956911500686516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.327147</v>
+      </c>
+      <c r="H21">
+        <v>0.654294</v>
+      </c>
+      <c r="I21">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J21">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>32.20407666666667</v>
+      </c>
+      <c r="N21">
+        <v>96.61223000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.5075723198207401</v>
+      </c>
+      <c r="P21">
+        <v>0.5090976377566464</v>
+      </c>
+      <c r="Q21">
+        <v>10.53546706927</v>
+      </c>
+      <c r="R21">
+        <v>63.21280241562001</v>
+      </c>
+      <c r="S21">
+        <v>0.04852742233794112</v>
+      </c>
+      <c r="T21">
+        <v>0.03351698741107292</v>
       </c>
     </row>
   </sheetData>
